--- a/mcmaster_excel/Tamper-Resistant_Asymmetrical_Drive_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Tamper-Resistant_Asymmetrical_Drive_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,212 +434,128 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>Screws</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.262"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.073"</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>U10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>99355A120</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$11.80</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>99355A623</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$29.41</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Driver Bits</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>U10</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>99355A129</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>99355A623</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>29.41</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,12 +570,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -684,12 +600,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>99355A145</t>
+          <t>99355A120</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>$11.80</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,12 +615,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>$29.41</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -716,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -726,12 +642,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -756,12 +672,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>99355A148</t>
+          <t>99355A129</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -776,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -828,12 +744,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>99355A151</t>
+          <t>99355A145</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -860,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -870,12 +786,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -900,12 +816,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>99355A210</t>
+          <t>99355A148</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -920,7 +836,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -942,12 +858,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -972,12 +888,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>99355A219</t>
+          <t>99355A151</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -992,7 +908,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1004,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1044,12 +960,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>99355A222</t>
+          <t>99355A210</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1076,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1116,12 +1032,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>99355A225</t>
+          <t>99355A219</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1148,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1158,12 +1074,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.400"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1188,12 +1104,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>99355A250</t>
+          <t>99355A222</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>14.40</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1208,7 +1124,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1220,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1230,12 +1146,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.400"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1260,12 +1176,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>99355A256</t>
+          <t>99355A225</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1280,7 +1196,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1292,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1332,12 +1248,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>99355A259</t>
+          <t>99355A250</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1364,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1404,12 +1320,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>99355A262</t>
+          <t>99355A256</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1436,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1476,12 +1392,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>99355A265</t>
+          <t>99355A259</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1508,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1518,17 +1434,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.400"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U25</t>
+          <t>U10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1548,17 +1464,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>99355A305</t>
+          <t>99355A262</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>14.40</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>99355A624</t>
+          <t>99355A623</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1568,7 +1484,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1580,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1590,17 +1506,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.400"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>U25</t>
+          <t>U10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1620,17 +1536,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>99355A311</t>
+          <t>99355A265</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>99355A624</t>
+          <t>99355A623</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1640,7 +1556,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1652,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1692,12 +1608,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>99355A314</t>
+          <t>99355A305</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15.80</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1724,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1764,12 +1680,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>99355A317</t>
+          <t>99355A311</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1796,70 +1712,214 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>U25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>99355A314</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>99355A624</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>U25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>99355A317</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>99355A624</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.437"</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.132"</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>U25</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>70,000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>ASME B18.3</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>99355A320</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>18.00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>99355A624</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>29.41</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
